--- a/biology/Zoologie/Anhydrophryne_ngongoniensis/Anhydrophryne_ngongoniensis.xlsx
+++ b/biology/Zoologie/Anhydrophryne_ngongoniensis/Anhydrophryne_ngongoniensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anhydrophryne ngongoniensis est une espèce d'amphibiens de la famille des Pyxicephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anhydrophryne ngongoniensis est une espèce d'amphibiens de la famille des Pyxicephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de KwaZulu-Natal en Afrique du Sud. Elle se rencontre entre 1 020 et 1 720 m d'altitude sur une surface d'environ 1 525 km2[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de KwaZulu-Natal en Afrique du Sud. Elle se rencontre entre 1 020 et 1 720 m d'altitude sur une surface d'environ 1 525 km2,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthroleptella ngongoniensis mesure de 16 à 22 mm. Son dos varie d'une teinte sable doré à brun et présente quatre bandes de petites taches foncées. Son ventre est blanc tandis que la face interne de ses membres et sa gorge sont jaune pâle.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bishop &amp; Passmore, 1993 : A new species of Arthroleptella Hewiitt (Ranidae: Phrynobatrachinae) from the mist belt of the Natal Highlands, South Africa. Annals of the Transvaal Museum, vol. 36, p. 17-20 (texte intégral).</t>
         </is>
